--- a/activity_code/activity_Code_list_protocolCore.xlsx
+++ b/activity_code/activity_Code_list_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\activity_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91309135-D0C9-42F5-BF1B-3C215E38B2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E6266-E140-4F49-95F3-F27B45FAD399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco codici attività" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Codice</t>
   </si>
@@ -33,13 +33,22 @@
     <t>Descrizione</t>
   </si>
   <si>
-    <t>App ArgoX3 Mobile (* ora si chiama YAPP)</t>
-  </si>
-  <si>
-    <t>YAX3M = YAX3C</t>
-  </si>
-  <si>
-    <t>YAX3A</t>
+    <t>ArgoX3MObile _Elementi Core</t>
+  </si>
+  <si>
+    <t>prima YAPP</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>YAX3M</t>
+  </si>
+  <si>
+    <t>Elementi AppCore</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -79,13 +88,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -366,37 +420,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="89.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/activity_code/activity_Code_list_protocolCore.xlsx
+++ b/activity_code/activity_Code_list_protocolCore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\activity_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E6266-E140-4F49-95F3-F27B45FAD399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B14C4-9AAA-43D9-A6BC-386EE1AFE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Codice</t>
   </si>
@@ -48,7 +48,13 @@
     <t>YAX3M</t>
   </si>
   <si>
-    <t>Elementi AppCore</t>
+    <t>Elementi ArgoX3Mobile AppCore</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>manca</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +442,7 @@
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +452,11 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -455,12 +467,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
